--- a/CashFlow/SWKS_cashflow.xlsx
+++ b/CashFlow/SWKS_cashflow.xlsx
@@ -758,22 +758,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2195900000.0</v>
+        <v>-91600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2872000000.0</v>
+        <v>-109400000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2757000000.0</v>
+        <v>-190400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1921100000.0</v>
+        <v>-113400000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1200300000.0</v>
+        <v>-89700000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>489400000.0</v>
+        <v>-106700000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>-119600000.0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90200000.0</v>
+        <v>863000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>61100000.0</v>
+        <v>737000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -4257,10 +4257,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-496600000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-775400000.0</v>
